--- a/grafici.xlsx
+++ b/grafici.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\epic-kitchens-temporal-segment-networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,40 @@
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v5.0" hidden="1">Foglio1!$A$11</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">Foglio1!$A$12:$A$14</definedName>
+    <definedName name="_xlchart.v5.10" hidden="1">Foglio1!B10</definedName>
+    <definedName name="_xlchart.v5.11" hidden="1">Foglio1!B11</definedName>
+    <definedName name="_xlchart.v5.12" hidden="1">Foglio1!C10</definedName>
+    <definedName name="_xlchart.v5.13" hidden="1">Foglio1!C11</definedName>
+    <definedName name="_xlchart.v5.14" hidden="1">Foglio1!D10</definedName>
+    <definedName name="_xlchart.v5.15" hidden="1">Foglio1!D11</definedName>
+    <definedName name="_xlchart.v5.16" hidden="1">Foglio1!$A$11</definedName>
+    <definedName name="_xlchart.v5.17" hidden="1">Foglio1!$A$12:$A$14</definedName>
+    <definedName name="_xlchart.v5.18" hidden="1">Foglio1!$B$11</definedName>
+    <definedName name="_xlchart.v5.19" hidden="1">Foglio1!$B$12:$B$14</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">Foglio1!$B$11</definedName>
+    <definedName name="_xlchart.v5.20" hidden="1">Foglio1!$C$11</definedName>
+    <definedName name="_xlchart.v5.21" hidden="1">Foglio1!$C$12:$C$14</definedName>
+    <definedName name="_xlchart.v5.22" hidden="1">Foglio1!$D$11</definedName>
+    <definedName name="_xlchart.v5.23" hidden="1">Foglio1!$D$12:$D$14</definedName>
+    <definedName name="_xlchart.v5.24" hidden="1">Foglio1!A10</definedName>
+    <definedName name="_xlchart.v5.25" hidden="1">Foglio1!A11</definedName>
+    <definedName name="_xlchart.v5.26" hidden="1">Foglio1!B10</definedName>
+    <definedName name="_xlchart.v5.27" hidden="1">Foglio1!B11</definedName>
+    <definedName name="_xlchart.v5.28" hidden="1">Foglio1!C10</definedName>
+    <definedName name="_xlchart.v5.29" hidden="1">Foglio1!C11</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">Foglio1!$B$12:$B$14</definedName>
+    <definedName name="_xlchart.v5.30" hidden="1">Foglio1!D10</definedName>
+    <definedName name="_xlchart.v5.31" hidden="1">Foglio1!D11</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">Foglio1!$C$11</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">Foglio1!$C$12:$C$14</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">Foglio1!$D$11</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">Foglio1!$D$12:$D$14</definedName>
+    <definedName name="_xlchart.v5.8" hidden="1">Foglio1!A10</definedName>
+    <definedName name="_xlchart.v5.9" hidden="1">Foglio1!A11</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>ESPERIMENTO 1</t>
   </si>
@@ -72,6 +106,15 @@
   </si>
   <si>
     <t>wash</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
   </si>
 </sst>
 </file>
@@ -5206,13 +5249,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5412,11 +5459,20 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -5424,8 +5480,20 @@
         <f>(B12/SUM(B12:D12))*100</f>
         <v>100</v>
       </c>
+      <c r="C17">
+        <f>(B12/(B12+B13+B14))*100</f>
+        <v>98.148148148148152</v>
+      </c>
+      <c r="D17">
+        <f>(B12/SUM(B12:D12))*100</f>
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <f>(2*C17*D17)/(C17+D17)</f>
+        <v>99.065420560747668</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -5433,8 +5501,20 @@
         <f>(C13/SUM(B13:D13))*100</f>
         <v>92.488262910798127</v>
       </c>
+      <c r="C18">
+        <f>(C13/(C12+C13+C14))*100</f>
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <f>(C13/SUM(B13:D13))*100</f>
+        <v>92.488262910798127</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E19" si="0">(2*C18*D18)/(C18+D18)</f>
+        <v>96.097560975609753</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -5442,8 +5522,20 @@
         <f>(D14/SUM(B14:D14))*100</f>
         <v>100</v>
       </c>
+      <c r="C19">
+        <f>(D14/(D14+D13+D12))*100</f>
+        <v>94.666666666666671</v>
+      </c>
+      <c r="D19">
+        <f>(D14/SUM(B14:D14))*100</f>
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>97.260273972602747</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5451,13 +5543,25 @@
         <f>AVERAGE(B17:B19)</f>
         <v>97.496087636932714</v>
       </c>
+      <c r="C21">
+        <f>AVERAGE(C17:C19)</f>
+        <v>97.604938271604951</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(D17:D19)</f>
+        <v>97.496087636932714</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE(E17:E19)</f>
+        <v>97.474418502986723</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -5465,22 +5569,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -5585,8 +5689,17 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5597,6 +5710,18 @@
         <f>(B37/SUM(B37:E37))*100</f>
         <v>93.427230046948367</v>
       </c>
+      <c r="C43">
+        <f>100*B37/SUM(B37:B40)</f>
+        <v>81.224489795918373</v>
+      </c>
+      <c r="D43">
+        <f>100*B37/SUM(B37:E37)</f>
+        <v>93.427230046948353</v>
+      </c>
+      <c r="E43">
+        <f>(2*C43*D43)/(C43+D43)</f>
+        <v>86.899563318777297</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -5606,6 +5731,18 @@
         <f>(C38/SUM(B38:E38))*100</f>
         <v>99.056603773584911</v>
       </c>
+      <c r="C44">
+        <f>100*C38/SUM(C37:C40)</f>
+        <v>90.128755364806864</v>
+      </c>
+      <c r="D44">
+        <f>100*C38/SUM(B38:E38)</f>
+        <v>99.056603773584911</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:E46" si="1">(2*C44*D44)/(C44+D44)</f>
+        <v>94.382022471910091</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -5615,6 +5752,18 @@
         <f>(D39/SUM(B39:E39))*100</f>
         <v>64.319248826291073</v>
       </c>
+      <c r="C45">
+        <f>100*D39/SUM(D37:D40)</f>
+        <v>88.387096774193552</v>
+      </c>
+      <c r="D45">
+        <f>100*D39/SUM(B39:E39)</f>
+        <v>64.319248826291073</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>74.456521739130437</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -5624,6 +5773,18 @@
         <f>(E40/SUM(B40:E40))*100</f>
         <v>96.713615023474176</v>
       </c>
+      <c r="C46">
+        <f>100*E40/SUM(E37:E40)</f>
+        <v>94.495412844036693</v>
+      </c>
+      <c r="D46">
+        <f>100*E40/SUM(B40:E40)</f>
+        <v>96.713615023474176</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>95.591647331786533</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -5632,6 +5793,18 @@
       <c r="B48">
         <f>AVERAGE(B43:B46)</f>
         <v>88.379174417574632</v>
+      </c>
+      <c r="C48">
+        <f>AVERAGE(C43:C46)</f>
+        <v>88.55893869473887</v>
+      </c>
+      <c r="D48">
+        <f>AVERAGE(D43:D46)</f>
+        <v>88.379174417574632</v>
+      </c>
+      <c r="E48">
+        <f>AVERAGE(E43:E46)</f>
+        <v>87.832438715401082</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -5807,8 +5980,17 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -5819,6 +6001,18 @@
         <f>(B65/SUM(B65:F65))*100</f>
         <v>92.018779342723008</v>
       </c>
+      <c r="C72">
+        <f>100*B65/SUM(B65:B69)</f>
+        <v>82.008368200836827</v>
+      </c>
+      <c r="D72">
+        <f>100*B65/SUM(B65:F65)</f>
+        <v>92.018779342723008</v>
+      </c>
+      <c r="E72">
+        <f>(2*C72*D72)/(C72+D72)</f>
+        <v>86.725663716814168</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -5828,6 +6022,18 @@
         <f>(C66/SUM(B66:F66))*100</f>
         <v>99.056603773584911</v>
       </c>
+      <c r="C73">
+        <f>100*C66/SUM(C65:C69)</f>
+        <v>86.776859504132233</v>
+      </c>
+      <c r="D73">
+        <f>100*C66/SUM(B66:F66)</f>
+        <v>99.056603773584911</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73:E76" si="2">(2*C73*D73)/(C73+D73)</f>
+        <v>92.511013215859037</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -5837,6 +6043,18 @@
         <f>(D67/SUM(B67:F67))*100</f>
         <v>45.539906103286384</v>
       </c>
+      <c r="C74">
+        <f>100*D67/SUM(D65:D69)</f>
+        <v>82.20338983050847</v>
+      </c>
+      <c r="D74">
+        <f>100*D67/SUM(B67:F67)</f>
+        <v>45.539906103286384</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>58.610271903323259</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -5846,6 +6064,18 @@
         <f>(E68/SUM(B68:F68))*100</f>
         <v>91.509433962264154</v>
       </c>
+      <c r="C75">
+        <f>100*E68/SUM(E65:E69)</f>
+        <v>83.620689655172413</v>
+      </c>
+      <c r="D75">
+        <f>100*E68/SUM(B68:F68)</f>
+        <v>91.509433962264154</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="2"/>
+        <v>87.387387387387392</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -5855,6 +6085,18 @@
         <f>(F69/SUM(B69:F69))*100</f>
         <v>99.061032863849761</v>
       </c>
+      <c r="C76">
+        <f>100*F69/SUM(F65:F69)</f>
+        <v>90.948275862068968</v>
+      </c>
+      <c r="D76">
+        <f>100*F69/SUM(B69:F69)</f>
+        <v>99.061032863849761</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="2"/>
+        <v>94.831460674157299</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -5863,6 +6105,18 @@
       <c r="B78">
         <f>AVERAGE(B72:B76)</f>
         <v>85.437151209141646</v>
+      </c>
+      <c r="C78">
+        <f>AVERAGE(C72:C76)</f>
+        <v>85.111516610543774</v>
+      </c>
+      <c r="D78">
+        <f>AVERAGE(D72:D76)</f>
+        <v>85.437151209141646</v>
+      </c>
+      <c r="E78">
+        <f>AVERAGE(E72:E76)</f>
+        <v>84.013159379508238</v>
       </c>
     </row>
   </sheetData>
